--- a/data/globalTables/productSlitList.xlsx
+++ b/data/globalTables/productSlitList.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\紫华\MESSystem_180506\MESSystem\data\globalTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72DFF73E-BB50-4807-80B0-9D96D51A3517}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
   <si>
     <t>machineID</t>
   </si>
@@ -37,103 +31,87 @@
   </si>
   <si>
     <t>scanTime1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接收大卷扫描条码信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接收扫描时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完工扫描条码信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完工扫描时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>批次号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大卷序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>barCode1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>barCode2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>scanTime2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>batchNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>errorStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接头数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numOfJoins</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小卷序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>customerIndex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>smallIndex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>S17110906L302P2180120143101</t>
@@ -148,190 +126,89 @@
     <t>S17110906L302P2180120143104</t>
   </si>
   <si>
-    <t>操作员工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>workerID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302S118012014310400100</t>
   </si>
   <si>
     <t>S17110906L302S118012014310300200</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310300300</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310300400</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310300500</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310300600</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310300700</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310300800</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310300900</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310400200</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310400300</t>
   </si>
   <si>
     <t>S17110906L302S118012014310400500</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310400600</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310400700</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310400800</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310400900</t>
   </si>
   <si>
     <t>S17110906L302P2180120143105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310500300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>S17110906L302S118012014310500400</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310500500</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310500600</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310500700</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310500800</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310500900</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310500100</t>
-  </si>
-  <si>
     <t>largeIndex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2018-1-4 13:34</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310100100</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310100200</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310100300</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310100400</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310100500</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310100600</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310100700</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310100800</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310100920</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310101000</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310101100</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310200100</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310200200</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310200300</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310200400</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310200500</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310200600</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310200700</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310200800</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310200900</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310201000</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310201100</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310300100</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310301000</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310301100</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310400440</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310401000</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310401100</t>
   </si>
   <si>
@@ -341,20 +218,68 @@
     <t>S17110906L302S118012014310501000</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310501100</t>
+    <t>1804523121L3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卷重量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,9 +325,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,16 +337,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,15 +357,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,26 +437,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,23 +472,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J5" sqref="J5:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -849,22 +740,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -872,19 +763,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>1801306</v>
@@ -892,40 +777,30 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
         <v>1801306</v>
@@ -933,20 +808,20 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <v>2</v>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -954,19 +829,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2">
         <v>1801306</v>
@@ -974,40 +843,30 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
         <v>1801306</v>
@@ -1015,20 +874,20 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>4</v>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1036,19 +895,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>1801306</v>
@@ -1056,40 +909,30 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2">
         <v>1801306</v>
@@ -1097,20 +940,20 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>6</v>
+      <c r="I8" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1118,19 +961,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2">
         <v>1801306</v>
@@ -1138,40 +975,30 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
-        <v>7</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
         <v>1801306</v>
@@ -1179,20 +1006,20 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
-        <v>8</v>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1200,19 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2">
         <v>1801306</v>
@@ -1220,40 +1041,30 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
-        <v>9</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2">
         <v>1801306</v>
@@ -1261,20 +1072,20 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>10</v>
+      <c r="I12" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1282,19 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2">
         <v>1801306</v>
@@ -1302,61 +1107,51 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
-        <v>11</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1801306</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1364,19 +1159,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2">
         <v>1801306</v>
@@ -1384,40 +1173,30 @@
       <c r="H15" s="2">
         <v>2</v>
       </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2">
         <v>1801306</v>
@@ -1425,20 +1204,20 @@
       <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="2">
-        <v>3</v>
+      <c r="I16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1446,19 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2">
         <v>1801306</v>
@@ -1466,40 +1239,30 @@
       <c r="H17" s="2">
         <v>2</v>
       </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2">
         <v>1801306</v>
@@ -1507,20 +1270,20 @@
       <c r="H18" s="2">
         <v>2</v>
       </c>
-      <c r="I18" s="2">
-        <v>5</v>
+      <c r="I18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1528,19 +1291,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G19" s="2">
         <v>1801306</v>
@@ -1548,40 +1305,30 @@
       <c r="H19" s="2">
         <v>2</v>
       </c>
-      <c r="I19" s="2">
-        <v>6</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2">
         <v>1801306</v>
@@ -1589,20 +1336,20 @@
       <c r="H20" s="2">
         <v>2</v>
       </c>
-      <c r="I20" s="2">
-        <v>7</v>
+      <c r="I20" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -1610,19 +1357,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2">
         <v>1801306</v>
@@ -1630,40 +1371,30 @@
       <c r="H21" s="2">
         <v>2</v>
       </c>
-      <c r="I21" s="2">
-        <v>8</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2">
         <v>1801306</v>
@@ -1671,20 +1402,20 @@
       <c r="H22" s="2">
         <v>2</v>
       </c>
-      <c r="I22" s="2">
-        <v>9</v>
+      <c r="I22" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -1692,19 +1423,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2">
         <v>1801306</v>
@@ -1712,40 +1437,30 @@
       <c r="H23" s="2">
         <v>2</v>
       </c>
-      <c r="I23" s="2">
-        <v>10</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2">
         <v>1801306</v>
@@ -1753,20 +1468,20 @@
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="2">
-        <v>11</v>
+      <c r="I24" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -1774,19 +1489,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2">
         <v>1801306</v>
@@ -1794,61 +1503,51 @@
       <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1801306</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -1856,19 +1555,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2">
         <v>1801306</v>
@@ -1876,40 +1569,30 @@
       <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2">
         <v>1801306</v>
@@ -1917,20 +1600,20 @@
       <c r="H28" s="2">
         <v>2</v>
       </c>
-      <c r="I28" s="2">
-        <v>4</v>
+      <c r="I28" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -1938,19 +1621,13 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2">
         <v>1801306</v>
@@ -1958,40 +1635,30 @@
       <c r="H29" s="2">
         <v>2</v>
       </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>15</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G30" s="2">
         <v>1801306</v>
@@ -1999,20 +1666,20 @@
       <c r="H30" s="2">
         <v>2</v>
       </c>
-      <c r="I30" s="2">
-        <v>6</v>
+      <c r="I30" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
@@ -2020,19 +1687,13 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2">
         <v>1801306</v>
@@ -2040,40 +1701,30 @@
       <c r="H31" s="2">
         <v>2</v>
       </c>
-      <c r="I31" s="2">
-        <v>7</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G32" s="2">
         <v>1801306</v>
@@ -2081,20 +1732,20 @@
       <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="I32" s="2">
-        <v>8</v>
+      <c r="I32" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -2102,19 +1753,13 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2">
         <v>1801306</v>
@@ -2122,40 +1767,30 @@
       <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="I33" s="2">
-        <v>9</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>15</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G34" s="2">
         <v>1801306</v>
@@ -2163,20 +1798,20 @@
       <c r="H34" s="2">
         <v>2</v>
       </c>
-      <c r="I34" s="2">
-        <v>10</v>
+      <c r="I34" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -2184,19 +1819,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2">
         <v>1801306</v>
@@ -2204,61 +1833,51 @@
       <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="I35" s="2">
-        <v>11</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>15</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1801306</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -2266,19 +1885,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G37" s="2">
         <v>1801306</v>
@@ -2286,40 +1899,30 @@
       <c r="H37" s="2">
         <v>2</v>
       </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>15</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G38" s="2">
         <v>1801306</v>
@@ -2327,20 +1930,20 @@
       <c r="H38" s="2">
         <v>2</v>
       </c>
-      <c r="I38" s="2">
-        <v>3</v>
+      <c r="I38" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>23</v>
+      <c r="K38" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -2348,19 +1951,13 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G39" s="2">
         <v>1801306</v>
@@ -2368,40 +1965,30 @@
       <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="I39" s="2">
-        <v>4</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>15</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G40" s="2">
         <v>1801306</v>
@@ -2409,20 +1996,20 @@
       <c r="H40" s="2">
         <v>2</v>
       </c>
-      <c r="I40" s="2">
-        <v>5</v>
+      <c r="I40" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -2430,19 +2017,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G41" s="2">
         <v>1801306</v>
@@ -2450,40 +2031,30 @@
       <c r="H41" s="2">
         <v>2</v>
       </c>
-      <c r="I41" s="2">
-        <v>6</v>
-      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>15</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G42" s="2">
         <v>1801306</v>
@@ -2491,20 +2062,20 @@
       <c r="H42" s="2">
         <v>2</v>
       </c>
-      <c r="I42" s="2">
-        <v>7</v>
+      <c r="I42" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -2512,19 +2083,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2">
         <v>1801306</v>
@@ -2532,40 +2097,30 @@
       <c r="H43" s="2">
         <v>2</v>
       </c>
-      <c r="I43" s="2">
-        <v>8</v>
-      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2">
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>15</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G44" s="2">
         <v>1801306</v>
@@ -2573,20 +2128,20 @@
       <c r="H44" s="2">
         <v>2</v>
       </c>
-      <c r="I44" s="2">
-        <v>9</v>
+      <c r="I44" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -2594,19 +2149,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G45" s="2">
         <v>1801306</v>
@@ -2614,40 +2163,30 @@
       <c r="H45" s="2">
         <v>2</v>
       </c>
-      <c r="I45" s="2">
-        <v>10</v>
-      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>15</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G46" s="2">
         <v>1801306</v>
@@ -2655,20 +2194,20 @@
       <c r="H46" s="2">
         <v>2</v>
       </c>
-      <c r="I46" s="2">
-        <v>11</v>
+      <c r="I46" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -2676,19 +2215,13 @@
         <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G47" s="2">
         <v>1801306</v>
@@ -2696,61 +2229,51 @@
       <c r="H47" s="2">
         <v>2</v>
       </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2">
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L47" s="2">
         <v>1</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>15</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1801306</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="H48" s="2">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2">
-        <v>2</v>
-      </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
@@ -2758,19 +2281,13 @@
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G49" s="2">
         <v>1801306</v>
@@ -2778,40 +2295,30 @@
       <c r="H49" s="2">
         <v>2</v>
       </c>
-      <c r="I49" s="2">
-        <v>3</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2">
         <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>15</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G50" s="2">
         <v>1801306</v>
@@ -2819,20 +2326,20 @@
       <c r="H50" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="2">
-        <v>4</v>
+      <c r="I50" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
@@ -2840,19 +2347,13 @@
         <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G51" s="2">
         <v>1801306</v>
@@ -2860,40 +2361,30 @@
       <c r="H51" s="2">
         <v>2</v>
       </c>
-      <c r="I51" s="2">
-        <v>5</v>
-      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="2">
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>15</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G52" s="2">
         <v>1801306</v>
@@ -2901,20 +2392,20 @@
       <c r="H52" s="2">
         <v>2</v>
       </c>
-      <c r="I52" s="2">
-        <v>6</v>
+      <c r="I52" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
@@ -2922,19 +2413,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G53" s="2">
         <v>1801306</v>
@@ -2942,40 +2427,30 @@
       <c r="H53" s="2">
         <v>2</v>
       </c>
-      <c r="I53" s="2">
-        <v>7</v>
-      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="2">
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>15</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G54" s="2">
         <v>1801306</v>
@@ -2983,20 +2458,20 @@
       <c r="H54" s="2">
         <v>2</v>
       </c>
-      <c r="I54" s="2">
-        <v>8</v>
+      <c r="I54" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L54" s="2">
         <v>1</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
@@ -3004,19 +2479,13 @@
         <v>15</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G55" s="2">
         <v>1801306</v>
@@ -3024,40 +2493,30 @@
       <c r="H55" s="2">
         <v>2</v>
       </c>
-      <c r="I55" s="2">
-        <v>9</v>
-      </c>
+      <c r="I55" s="2"/>
       <c r="J55" s="2">
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L55" s="2">
         <v>1</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>15</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G56" s="2">
         <v>1801306</v>
@@ -3065,20 +2524,20 @@
       <c r="H56" s="2">
         <v>2</v>
       </c>
-      <c r="I56" s="2">
-        <v>10</v>
+      <c r="I56" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -3086,19 +2545,13 @@
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G57" s="2">
         <v>1801306</v>
@@ -3106,51 +2559,47 @@
       <c r="H57" s="2">
         <v>2</v>
       </c>
-      <c r="I57" s="2">
-        <v>11</v>
-      </c>
+      <c r="I57" s="2"/>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M57" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>